--- a/TrabalhoParte2/Resultados/Resultado das Árvores.xlsx
+++ b/TrabalhoParte2/Resultados/Resultado das Árvores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\UFJF\Disciplinas\4° Período\Estrutura de Dados II\Trabalho\TrabalhoParte2\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0EC3CA-8847-4B3A-B690-EB912F7A0BA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF259271-9913-4AA5-A90F-BBB5A23F962C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{FE4A1B03-1822-40D6-87D4-FD6EEE318B14}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="11">
   <si>
     <t>Árvore VP</t>
   </si>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -211,6 +211,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,6 +228,6427 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> Tempo de Inserção </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore B(2) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Média!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Média!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.9840000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7143999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.40202E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11769639999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.243284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6530999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7301580000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E70C-4C72-B5F7-F8465FD074AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore B(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Média!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Média!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.9940000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1968E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3938000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1537599999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9012200000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4653968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0071927999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E70C-4C72-B5F7-F8465FD074AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore VP </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Média!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Média!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.996E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9284000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1194000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.87922E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8467400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44462980000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.059124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E70C-4C72-B5F7-F8465FD074AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="392018959"/>
+        <c:axId val="393171263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="392018959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número de chaves</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393171263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="393171263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo em s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392018959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" b="0" cap="none" baseline="0">
+                <a:latin typeface="Calibri Light (Títulos)"/>
+              </a:rPr>
+              <a:t>Comparações na Inserção</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore B(2) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Média!$B$8:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Média!$F$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Média!$B$9:$H$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Média!$F$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4400624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25684880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54474020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0376-4552-87D3-7DA2659862EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore B(20) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Média!$B$8:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Média!$F$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Média!$B$10:$H$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Média!$F$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5037972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28594440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61840200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0376-4552-87D3-7DA2659862EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore VP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Média!$B$8:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Média!$F$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Média!$B$11:$H$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Média!$F$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3476796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19100300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39710900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0376-4552-87D3-7DA2659862EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="442553455"/>
+        <c:axId val="435940287"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="442553455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número de chaves</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435940287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435940287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número de Comparações</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442553455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" b="0" cap="none" baseline="0">
+                <a:latin typeface="Calibri Light (Títulos)"/>
+              </a:rPr>
+              <a:t>Cópias na Inserção</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore B(2) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Média!$B$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Média!$B$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2933.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14805.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29700.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>148998.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>297288.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1488902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2977188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CE8-42E3-98E4-DD8BF6ABE229}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore B(20) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Média!$B$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Média!$B$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1337.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8629.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17397.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180410.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>912424.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1829924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CE8-42E3-98E4-DD8BF6ABE229}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="436896367"/>
+        <c:axId val="437920191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="436896367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número de registros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437920191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437920191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número de Cópias</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436896367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Tempo de Busca</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore B(2) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Média!$K$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Média!$K$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.5238000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1023999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2238199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9421199999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18507699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.043758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1849199999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03C1-49BC-9029-54FA8D729451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore B(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Média!$K$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Média!$K$4:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.9900000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1966000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1965E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2359599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7220999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46376540000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1032140000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03C1-49BC-9029-54FA8D729451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore VP </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Média!$K$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Média!$K$5:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9900000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9799999999999988E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1035999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7791199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27468680000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69637340000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-03C1-49BC-9029-54FA8D729451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="493181487"/>
+        <c:axId val="437919775"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="493181487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número de Chaves</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437919775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437919775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo em s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493181487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" cap="none" baseline="0">
+                <a:latin typeface="Calibri Light (Títulos)"/>
+              </a:rPr>
+              <a:t>Comparações na Busca</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore B(2) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Média!$K$8:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Média!$K$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>33309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208516.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463723.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2587292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5508336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31950680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67910840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-769A-4811-B1EA-F6AC15A11F35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore B(20) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Média!$K$8:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Média!$K$10:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>37038.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>436300.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3937760</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6950108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33128920</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93420460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-769A-4811-B1EA-F6AC15A11F35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Média!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Árvore VP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Média!$K$8:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Média!$K$11:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196051.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>420782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2405176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5081422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28352100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59259320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-769A-4811-B1EA-F6AC15A11F35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="497370447"/>
+        <c:axId val="493058191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497370447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número de Chaves</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493058191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493058191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número de Comparações</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4879835027281444E-2"/>
+              <c:y val="5.800925925925926E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497370447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820272FC-2177-41E0-ABF1-3893C82EC695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA62E8D7-BDCC-43EC-854E-175862688D2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18653A4B-BE18-4C85-8746-FAEA7139CBE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4D98E4-B83B-4C39-AEEE-F27F9B552551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>671510</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F637B0-0B33-4E48-8693-2C9EED68D6CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2941,7 +9364,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3545,14 +9968,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76E04C9-C131-4676-AC2F-F046BACFF975}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3578,52 +10007,48 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6">
         <v>1000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>5000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>10000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>50000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>100000</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="16">
         <v>500000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>1000000</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
         <v>1000</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="6">
         <v>5000</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="6">
         <v>10000</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="6">
         <v>50000</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="6">
         <v>100000</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="6">
         <v>500000</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="6">
         <v>1000000</v>
       </c>
     </row>
@@ -3846,52 +10271,48 @@
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6">
         <v>1000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>5000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>10000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>50000</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>100000</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>500000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>1000000</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
         <v>1000</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="6">
         <v>5000</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="6">
         <v>10000</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="6">
         <v>50000</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="6">
         <v>100000</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="6">
         <v>500000</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="16">
         <v>1000000</v>
       </c>
     </row>
@@ -3899,62 +10320,62 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <f>(Seed1!B9+Seed2!B9+Seed3!B9+Seed4!B9+Seed5!B9)/5</f>
         <v>23817.200000000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <f>(Seed1!C9+Seed2!C9+Seed3!C9+Seed4!C9+Seed5!C9)/5</f>
         <v>155293.6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <f>(Seed1!D9+Seed2!D9+Seed3!D9+Seed4!D9+Seed5!D9)/5</f>
         <v>342303.6</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <f>(Seed1!E9+Seed2!E9+Seed3!E9+Seed4!E9+Seed5!E9)/5</f>
         <v>2053200</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <f>(Seed1!F9+Seed2!F9+Seed3!F9+Seed4!F9+Seed5!F9)/5</f>
         <v>4400624</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <f>(Seed1!G9+Seed2!G9+Seed3!G9+Seed4!G9+Seed5!G9)/5</f>
         <v>25684880</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <f>(Seed1!H9+Seed2!H9+Seed3!H9+Seed4!H9+Seed5!H9)/5</f>
         <v>54474020</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="6">
         <f>(Seed1!K9+Seed2!K9+Seed3!K9+Seed4!K9+Seed5!K9)/5</f>
         <v>33309</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="6">
         <f>(Seed1!L9+Seed2!L9+Seed3!L9+Seed4!L9+Seed5!L9)/5</f>
         <v>208516.8</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="6">
         <f>(Seed1!M9+Seed2!M9+Seed3!M9+Seed4!M9+Seed5!M9)/5</f>
         <v>463723.6</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="6">
         <f>(Seed1!N9+Seed2!N9+Seed3!N9+Seed4!N9+Seed5!N9)/5</f>
         <v>2587292</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="6">
         <f>(Seed1!O9+Seed2!O9+Seed3!O9+Seed4!O9+Seed5!O9)/5</f>
         <v>5508336</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="6">
         <f>(Seed1!P9+Seed2!P9+Seed3!P9+Seed4!P9+Seed5!P9)/5</f>
         <v>31950680</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="6">
         <f>(Seed1!Q9+Seed2!Q9+Seed3!Q9+Seed4!Q9+Seed5!Q9)/5</f>
         <v>67910840</v>
       </c>
@@ -3963,62 +10384,62 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <f>(Seed1!B10+Seed2!B10+Seed3!B10+Seed4!B10+Seed5!B10)/5</f>
         <v>26465.8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <f>(Seed1!C10+Seed2!C10+Seed3!C10+Seed4!C10+Seed5!C10)/5</f>
         <v>174073.2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <f>(Seed1!D10+Seed2!D10+Seed3!D10+Seed4!D10+Seed5!D10)/5</f>
         <v>371628.2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <f>(Seed1!E10+Seed2!E10+Seed3!E10+Seed4!E10+Seed5!E10)/5</f>
         <v>2347780</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <f>(Seed1!F10+Seed2!F10+Seed3!F10+Seed4!F10+Seed5!F10)/5</f>
         <v>5037972</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="6">
         <f>(Seed1!G10+Seed2!G10+Seed3!G10+Seed4!G10+Seed5!G10)/5</f>
         <v>28594440</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="6">
         <f>(Seed1!H10+Seed2!H10+Seed3!H10+Seed4!H10+Seed5!H10)/5</f>
         <v>61840200</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="6">
         <f>(Seed1!K10+Seed2!K10+Seed3!K10+Seed4!K10+Seed5!K10)/5</f>
         <v>37038.199999999997</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="6">
         <f>(Seed1!L10+Seed2!L10+Seed3!L10+Seed4!L10+Seed5!L10)/5</f>
         <v>211297</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="6">
         <f>(Seed1!M10+Seed2!M10+Seed3!M10+Seed4!M10+Seed5!M10)/5</f>
         <v>436300.2</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="6">
         <f>(Seed1!N10+Seed2!N10+Seed3!N10+Seed4!N10+Seed5!N10)/5</f>
         <v>3937760</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="6">
         <f>(Seed1!O10+Seed2!O10+Seed3!O10+Seed4!O10+Seed5!O10)/5</f>
         <v>6950108</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="6">
         <f>(Seed1!P10+Seed2!P10+Seed3!P10+Seed4!P10+Seed5!P10)/5</f>
         <v>33128920</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="6">
         <f>(Seed1!Q10+Seed2!Q10+Seed3!Q10+Seed4!Q10+Seed5!Q10)/5</f>
         <v>93420460</v>
       </c>
@@ -4027,62 +10448,62 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <f>(Seed1!B11+Seed2!B11+Seed3!B11+Seed4!B11+Seed5!B11)/5</f>
         <v>22886.799999999999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <f>(Seed1!C11+Seed2!C11+Seed3!C11+Seed4!C11+Seed5!C11)/5</f>
         <v>136871.20000000001</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <f>(Seed1!D11+Seed2!D11+Seed3!D11+Seed4!D11+Seed5!D11)/5</f>
         <v>292518.40000000002</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <f>(Seed1!E11+Seed2!E11+Seed3!E11+Seed4!E11+Seed5!E11)/5</f>
         <v>1649272</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <f>(Seed1!F11+Seed2!F11+Seed3!F11+Seed4!F11+Seed5!F11)/5</f>
         <v>3476796</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <f>(Seed1!G11+Seed2!G11+Seed3!G11+Seed4!G11+Seed5!G11)/5</f>
         <v>19100300</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <f>(Seed1!H11+Seed2!H11+Seed3!H11+Seed4!H11+Seed5!H11)/5</f>
         <v>39710900</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="6">
         <f>(Seed1!K11+Seed2!K11+Seed3!K11+Seed4!K11+Seed5!K11)/5</f>
         <v>32511</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="6">
         <f>(Seed1!L11+Seed2!L11+Seed3!L11+Seed4!L11+Seed5!L11)/5</f>
         <v>196051.20000000001</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="6">
         <f>(Seed1!M11+Seed2!M11+Seed3!M11+Seed4!M11+Seed5!M11)/5</f>
         <v>420782</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="6">
         <f>(Seed1!N11+Seed2!N11+Seed3!N11+Seed4!N11+Seed5!N11)/5</f>
         <v>2405176</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="6">
         <f>(Seed1!O11+Seed2!O11+Seed3!O11+Seed4!O11+Seed5!O11)/5</f>
         <v>5081422</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="6">
         <f>(Seed1!P11+Seed2!P11+Seed3!P11+Seed4!P11+Seed5!P11)/5</f>
         <v>28352100</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="6">
         <f>(Seed1!Q11+Seed2!Q11+Seed3!Q11+Seed4!Q11+Seed5!Q11)/5</f>
         <v>59259320</v>
       </c>
@@ -4111,28 +10532,26 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
         <v>1000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>5000</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>10000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <v>50000</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>100000</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <v>500000</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="6">
         <v>1000000</v>
       </c>
       <c r="J14" s="5"/>
@@ -4144,34 +10563,34 @@
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <f>(Seed1!B15+Seed2!B15+Seed3!B15+Seed4!B15+Seed5!B15)/5</f>
         <v>2933.6</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <f>(Seed1!C15+Seed2!C15+Seed3!C15+Seed4!C15+Seed5!C15)/5</f>
         <v>14805.8</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
         <f>(Seed1!D15+Seed2!D15+Seed3!D15+Seed4!D15+Seed5!D15)/5</f>
         <v>29700.2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <f>(Seed1!E15+Seed2!E15+Seed3!E15+Seed4!E15+Seed5!E15)/5</f>
         <v>148998.20000000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <f>(Seed1!F15+Seed2!F15+Seed3!F15+Seed4!F15+Seed5!F15)/5</f>
         <v>297288.59999999998</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
         <f>(Seed1!G15+Seed2!G15+Seed3!G15+Seed4!G15+Seed5!G15)/5</f>
         <v>1488902</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="6">
         <f>(Seed1!H15+Seed2!H15+Seed3!H15+Seed4!H15+Seed5!H15)/5</f>
         <v>2977188</v>
       </c>
@@ -4184,34 +10603,34 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="15">
         <f>(Seed1!B16+Seed2!B16+Seed3!B16+Seed4!B16+Seed5!B16)/5</f>
         <v>1337.4</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="15">
         <f>(Seed1!C16+Seed2!C16+Seed3!C16+Seed4!C16+Seed5!C16)/5</f>
         <v>8629.7999999999993</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="15">
         <f>(Seed1!D16+Seed2!D16+Seed3!D16+Seed4!D16+Seed5!D16)/5</f>
         <v>17397.599999999999</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="15">
         <f>(Seed1!E16+Seed2!E16+Seed3!E16+Seed4!E16+Seed5!E16)/5</f>
         <v>89516</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="15">
         <f>(Seed1!F16+Seed2!F16+Seed3!F16+Seed4!F16+Seed5!F16)/5</f>
         <v>180410.4</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="15">
         <f>(Seed1!G16+Seed2!G16+Seed3!G16+Seed4!G16+Seed5!G16)/5</f>
         <v>912424.6</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="6">
         <f>(Seed1!H16+Seed2!H16+Seed3!H16+Seed4!H16+Seed5!H16)/5</f>
         <v>1829924</v>
       </c>
@@ -4241,5 +10660,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>